--- a/biology/Botanique/Chiococca/Chiococca.xlsx
+++ b/biology/Botanique/Chiococca/Chiococca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chiocoque ou Chiococca est un genre d'Angiospermes de la famille des Rubiaceae. Ce genre comprend plusieurs espèces originaires des régions néotropicales. L'espèce type de ce genre est Chiococca alba, qui pousse de la Floride au Paraguay et est cultivée comme plante ornementale.
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit scientifiquement pour la première fois par Patrick Browne en 1756 . Ce nom générique dérive des mots grecs chion, "neige" en français et kokkos, signifiant "noyau" ou "baie"[réf. nécessaire] .
 Chiococca est un membre de la tribu des Chiococcea. Dans cette tribu, il est proche du genre Bikkia.
@@ -543,9 +557,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (7 janv. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (7 janv. 2012) :
 Chiococca alba (L.) Hitchc. (1893)
 Chiococca anguifuga (Mart.)
 Chiococca auyantepuiensis Steyerm. (1972)
